--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_13_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_13_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>579979.7750082455</v>
+        <v>577381.2794068329</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9730238.093704747</v>
+        <v>9730238.093704749</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673438</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -1148,11 +1148,11 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>6.602605461619507</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="Y8" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,76 +1209,76 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="S9" t="n">
         <v>13.47865120333094</v>
       </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
       <c r="Y9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1291,55 +1291,55 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>13.47865120333094</v>
       </c>
       <c r="D10" t="n">
-        <v>13.47865120333094</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>358.9627716376682</v>
+        <v>358.9627716376679</v>
       </c>
       <c r="C11" t="n">
-        <v>341.5018217451952</v>
+        <v>341.5018217451948</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>330.9119715948702</v>
       </c>
       <c r="E11" t="n">
-        <v>358.1593000464494</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>383.1049757158991</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>387.1506556276411</v>
+        <v>387.1506556276407</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>17.80585974711326</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>85.41669176236346</v>
+        <v>85.41669176236312</v>
       </c>
       <c r="T11" t="n">
-        <v>180.1469001138078</v>
+        <v>180.1469001138074</v>
       </c>
       <c r="U11" t="n">
-        <v>227.2241019330896</v>
+        <v>227.2241019330892</v>
       </c>
       <c r="V11" t="n">
-        <v>303.9811884443225</v>
+        <v>303.9811884443222</v>
       </c>
       <c r="W11" t="n">
-        <v>238.3874924685408</v>
+        <v>325.4698986916003</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>345.9600306526563</v>
       </c>
       <c r="Y11" t="n">
-        <v>362.4668686302412</v>
+        <v>321.970876174891</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156.0609101561249</v>
+        <v>156.0609101561245</v>
       </c>
       <c r="C13" t="n">
-        <v>143.4757510728155</v>
+        <v>143.4757510728151</v>
       </c>
       <c r="D13" t="n">
-        <v>124.8444029924</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>122.6628926207568</v>
+        <v>122.6628926207564</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>94.12591847349005</v>
+        <v>29.11090367012153</v>
       </c>
       <c r="I13" t="n">
-        <v>72.58135038402571</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>65.16108264423495</v>
+        <v>65.16108264423463</v>
       </c>
       <c r="S13" t="n">
-        <v>165.9979553056295</v>
+        <v>165.9979553056292</v>
       </c>
       <c r="T13" t="n">
-        <v>195.7778792503568</v>
+        <v>195.7778792503564</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>262.4407681798002</v>
       </c>
       <c r="V13" t="n">
-        <v>228.3665732980156</v>
+        <v>228.3665732980153</v>
       </c>
       <c r="W13" t="n">
-        <v>262.7519283107786</v>
+        <v>262.7519283107783</v>
       </c>
       <c r="X13" t="n">
-        <v>201.9385853632248</v>
+        <v>201.9385853632244</v>
       </c>
       <c r="Y13" t="n">
-        <v>194.8135833262824</v>
+        <v>194.813583326282</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>358.9627716376682</v>
+        <v>358.9627716376679</v>
       </c>
       <c r="C14" t="n">
-        <v>341.5018217451952</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>330.9119715948706</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>358.1593000464494</v>
+        <v>358.1593000464491</v>
       </c>
       <c r="F14" t="n">
-        <v>383.1049757158991</v>
+        <v>383.1049757158987</v>
       </c>
       <c r="G14" t="n">
-        <v>387.1506556276411</v>
+        <v>323.3731524162511</v>
       </c>
       <c r="H14" t="n">
-        <v>222.5821651318929</v>
+        <v>270.8366943615077</v>
       </c>
       <c r="I14" t="n">
-        <v>17.80585974711357</v>
+        <v>17.80585974711321</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>85.41669176236346</v>
+        <v>85.41669176236309</v>
       </c>
       <c r="T14" t="n">
-        <v>180.1469001138078</v>
+        <v>180.1469001138074</v>
       </c>
       <c r="U14" t="n">
-        <v>227.2241019330896</v>
+        <v>227.2241019330892</v>
       </c>
       <c r="V14" t="n">
-        <v>303.9811884443225</v>
+        <v>303.9811884443222</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>325.4698986916003</v>
       </c>
       <c r="X14" t="n">
-        <v>345.9600306526567</v>
+        <v>345.9600306526563</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>362.4668686302409</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247741</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>156.0609101561249</v>
+        <v>156.0609101561245</v>
       </c>
       <c r="C16" t="n">
-        <v>143.4757510728155</v>
+        <v>143.4757510728151</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>124.8444029923996</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>122.6628926207564</v>
       </c>
       <c r="F16" t="n">
-        <v>121.6499779971189</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>142.2547382332158</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>72.58135038402571</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>65.16108264423494</v>
+        <v>65.16108264423458</v>
       </c>
       <c r="S16" t="n">
-        <v>165.9979553056295</v>
+        <v>165.9979553056291</v>
       </c>
       <c r="T16" t="n">
-        <v>195.7778792503568</v>
+        <v>195.7778792503564</v>
       </c>
       <c r="U16" t="n">
-        <v>262.4407681798005</v>
+        <v>262.4407681798002</v>
       </c>
       <c r="V16" t="n">
-        <v>43.65430297452715</v>
+        <v>228.3665732980153</v>
       </c>
       <c r="W16" t="n">
-        <v>262.7519283107786</v>
+        <v>262.7519283107783</v>
       </c>
       <c r="X16" t="n">
-        <v>201.9385853632248</v>
+        <v>201.9385853632244</v>
       </c>
       <c r="Y16" t="n">
-        <v>194.8135833262824</v>
+        <v>99.08008400400435</v>
       </c>
     </row>
     <row r="17">
@@ -1841,19 +1841,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C17" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>307.7079050020904</v>
+        <v>232.4771556490803</v>
       </c>
       <c r="E17" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G17" t="n">
         <v>363.9465890348609</v>
@@ -1910,7 +1910,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y17" t="n">
-        <v>305.635206655158</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="18">
@@ -2020,7 +2020,7 @@
         <v>97.77987829572825</v>
       </c>
       <c r="I19" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124556</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C20" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D20" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E20" t="n">
-        <v>334.9552334536692</v>
+        <v>301.3276380713636</v>
       </c>
       <c r="F20" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>363.9465890348609</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958331</v>
       </c>
       <c r="T20" t="n">
-        <v>11.04695678433414</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U20" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V20" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W20" t="n">
         <v>302.2658320988205</v>
@@ -2147,7 +2147,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y20" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247734</v>
+        <v>18.81721868247741</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C23" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D23" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E23" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F23" t="n">
         <v>359.9009091231189</v>
@@ -2375,7 +2375,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V23" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W23" t="n">
         <v>302.2658320988205</v>
@@ -2384,7 +2384,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y23" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="24">
@@ -2728,7 +2728,7 @@
         <v>124.4488784861023</v>
       </c>
       <c r="H28" t="n">
-        <v>76.61122890925958</v>
+        <v>29.25600601213839</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>47.35522289712138</v>
       </c>
       <c r="S28" t="n">
         <v>148.1920955585159</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247758</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2965,10 +2965,10 @@
         <v>124.4488784861023</v>
       </c>
       <c r="H31" t="n">
-        <v>29.25600601213873</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>29.25600601213828</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3029,7 +3029,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
-        <v>334.4857872430126</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
         <v>307.7079050020904</v>
@@ -3089,7 +3089,7 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988205</v>
+        <v>318.4538641894167</v>
       </c>
       <c r="X32" t="n">
         <v>322.7559640598765</v>
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247724</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
         <v>120.2716844800353</v>
@@ -3430,19 +3430,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T37" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U37" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W37" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X37" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
         <v>120.2716844800353</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247752</v>
+        <v>18.81721868247751</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>7.893517447291114</v>
       </c>
       <c r="H8" t="n">
-        <v>1.224219001210804</v>
+        <v>7.893517447291114</v>
       </c>
       <c r="I8" t="n">
         <v>1.224219001210804</v>
@@ -4808,16 +4808,16 @@
         <v>16.37392914119451</v>
       </c>
       <c r="L8" t="n">
-        <v>31.52363928117821</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="M8" t="n">
         <v>31.52363928117821</v>
       </c>
       <c r="N8" t="n">
-        <v>46.0612399205565</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="O8" t="n">
-        <v>61.2109500605402</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="P8" t="n">
         <v>61.2109500605402</v>
@@ -4829,22 +4829,22 @@
         <v>61.2109500605402</v>
       </c>
       <c r="S8" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="T8" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="U8" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="V8" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="W8" t="n">
         <v>45.75363943919166</v>
       </c>
       <c r="X8" t="n">
-        <v>45.75363943919166</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="Y8" t="n">
         <v>30.29632881784312</v>
@@ -4857,10 +4857,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C9" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D9" t="n">
         <v>1.224219001210804</v>
@@ -4887,7 +4887,7 @@
         <v>16.37392914119451</v>
       </c>
       <c r="L9" t="n">
-        <v>31.52363928117821</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="M9" t="n">
         <v>31.52363928117821</v>
@@ -4899,34 +4899,34 @@
         <v>31.52363928117821</v>
       </c>
       <c r="P9" t="n">
-        <v>46.6733494211619</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="Q9" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="R9" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="S9" t="n">
-        <v>61.2109500605402</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="T9" t="n">
-        <v>61.2109500605402</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="U9" t="n">
-        <v>45.75363943919166</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="V9" t="n">
-        <v>45.75363943919166</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="W9" t="n">
-        <v>45.75363943919166</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="X9" t="n">
-        <v>45.75363943919166</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="Y9" t="n">
-        <v>30.29632881784312</v>
+        <v>1.224219001210804</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>45.75363943919166</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="C10" t="n">
-        <v>45.75363943919166</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D10" t="n">
-        <v>32.13884024390788</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I10" t="n">
         <v>1.224219001210804</v>
@@ -4966,7 +4966,7 @@
         <v>1.224219001210804</v>
       </c>
       <c r="L10" t="n">
-        <v>15.7618196405891</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="M10" t="n">
         <v>30.9115297805728</v>
@@ -4981,31 +4981,31 @@
         <v>61.2109500605402</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="R10" t="n">
-        <v>45.75363943919166</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="S10" t="n">
-        <v>45.75363943919166</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="T10" t="n">
-        <v>45.75363943919166</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="U10" t="n">
-        <v>45.75363943919166</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="V10" t="n">
-        <v>45.75363943919166</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="W10" t="n">
-        <v>45.75363943919166</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="X10" t="n">
-        <v>45.75363943919166</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="Y10" t="n">
-        <v>45.75363943919166</v>
+        <v>14.83901819649459</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1551.276513538431</v>
+        <v>1154.764953517859</v>
       </c>
       <c r="C11" t="n">
-        <v>1206.325178442274</v>
+        <v>809.813618421703</v>
       </c>
       <c r="D11" t="n">
-        <v>1206.325178442274</v>
+        <v>475.5591016592078</v>
       </c>
       <c r="E11" t="n">
-        <v>844.5481076882846</v>
+        <v>475.5591016592078</v>
       </c>
       <c r="F11" t="n">
-        <v>457.573384742932</v>
+        <v>475.5591016592078</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218343</v>
+        <v>84.49783334845961</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>84.49783334845961</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3239.326334980522</v>
+        <v>3239.32633498052</v>
       </c>
       <c r="T11" t="n">
-        <v>3057.359769208998</v>
+        <v>3057.359769208997</v>
       </c>
       <c r="U11" t="n">
-        <v>2827.84047432709</v>
+        <v>2827.840474327089</v>
       </c>
       <c r="V11" t="n">
         <v>2520.788768827774</v>
       </c>
       <c r="W11" t="n">
-        <v>2279.993321889854</v>
+        <v>2192.031295401915</v>
       </c>
       <c r="X11" t="n">
-        <v>2279.993321889854</v>
+        <v>1842.57671898509</v>
       </c>
       <c r="Y11" t="n">
-        <v>1913.865171758297</v>
+        <v>1517.353611737726</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811068</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999798</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387287</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332731</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601582</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392777</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5133,37 +5133,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>629.8356674862117</v>
+        <v>364.7439824561158</v>
       </c>
       <c r="C13" t="n">
-        <v>484.9106664025597</v>
+        <v>219.8189813724641</v>
       </c>
       <c r="D13" t="n">
-        <v>358.8052088344789</v>
+        <v>219.8189813724641</v>
       </c>
       <c r="E13" t="n">
-        <v>234.9032970963408</v>
+        <v>95.91706963432625</v>
       </c>
       <c r="F13" t="n">
-        <v>234.9032970963408</v>
+        <v>95.91706963432625</v>
       </c>
       <c r="G13" t="n">
-        <v>234.9032970963408</v>
+        <v>95.91706963432625</v>
       </c>
       <c r="H13" t="n">
-        <v>139.8266117695832</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>135.1681082046732</v>
+        <v>135.1681082046736</v>
       </c>
       <c r="K13" t="n">
-        <v>362.6886504791038</v>
+        <v>362.6886504791045</v>
       </c>
       <c r="L13" t="n">
-        <v>702.7818082531542</v>
+        <v>702.7818082531553</v>
       </c>
       <c r="M13" t="n">
-        <v>1070.472213178257</v>
+        <v>1070.472213178259</v>
       </c>
       <c r="N13" t="n">
-        <v>1435.413949209676</v>
+        <v>1435.413949209678</v>
       </c>
       <c r="O13" t="n">
-        <v>1758.276907455644</v>
+        <v>1758.276907455646</v>
       </c>
       <c r="P13" t="n">
-        <v>2014.417767214858</v>
+        <v>2014.41776721486</v>
       </c>
       <c r="Q13" t="n">
-        <v>2115.561422692926</v>
+        <v>2115.561422692929</v>
       </c>
       <c r="R13" t="n">
-        <v>2049.742147294709</v>
+        <v>2049.742147294712</v>
       </c>
       <c r="S13" t="n">
-        <v>1882.067444965791</v>
+        <v>1882.067444965794</v>
       </c>
       <c r="T13" t="n">
-        <v>1684.312011379572</v>
+        <v>1684.312011379575</v>
       </c>
       <c r="U13" t="n">
-        <v>1684.312011379572</v>
+        <v>1419.220326349474</v>
       </c>
       <c r="V13" t="n">
-        <v>1453.63870501794</v>
+        <v>1188.547019987842</v>
       </c>
       <c r="W13" t="n">
-        <v>1188.232716825234</v>
+        <v>923.141031795137</v>
       </c>
       <c r="X13" t="n">
-        <v>984.2543477714717</v>
+        <v>719.162662741375</v>
       </c>
       <c r="Y13" t="n">
-        <v>787.4729504721965</v>
+        <v>522.3812654421002</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2134.869700370996</v>
+        <v>1439.98407681358</v>
       </c>
       <c r="C14" t="n">
-        <v>1789.918365274839</v>
+        <v>1439.98407681358</v>
       </c>
       <c r="D14" t="n">
-        <v>1455.663848512344</v>
+        <v>1439.98407681358</v>
       </c>
       <c r="E14" t="n">
-        <v>1093.886777758354</v>
+        <v>1078.207006059591</v>
       </c>
       <c r="F14" t="n">
-        <v>706.9120548130018</v>
+        <v>691.2322831142383</v>
       </c>
       <c r="G14" t="n">
-        <v>315.850786502253</v>
+        <v>364.5927352190351</v>
       </c>
       <c r="H14" t="n">
-        <v>91.02031667205803</v>
+        <v>91.02031667205759</v>
       </c>
       <c r="I14" t="n">
-        <v>73.0345997557817</v>
+        <v>73.03459975578163</v>
       </c>
       <c r="J14" t="n">
         <v>261.9137307148071</v>
       </c>
       <c r="K14" t="n">
-        <v>595.7331044046537</v>
+        <v>595.7331044046535</v>
       </c>
       <c r="L14" t="n">
-        <v>1366.369000509378</v>
+        <v>1046.767317653062</v>
       </c>
       <c r="M14" t="n">
-        <v>1899.900905181302</v>
+        <v>1580.299222324987</v>
       </c>
       <c r="N14" t="n">
-        <v>2446.679722240085</v>
+        <v>2127.078039383769</v>
       </c>
       <c r="O14" t="n">
-        <v>2949.652193119422</v>
+        <v>2630.050510263106</v>
       </c>
       <c r="P14" t="n">
-        <v>3344.4265594766</v>
+        <v>3134.234718723291</v>
       </c>
       <c r="Q14" t="n">
-        <v>3592.712921232282</v>
+        <v>3592.712921232279</v>
       </c>
       <c r="R14" t="n">
-        <v>3651.729987789085</v>
+        <v>3651.729987789081</v>
       </c>
       <c r="S14" t="n">
-        <v>3565.450501160435</v>
+        <v>3565.450501160432</v>
       </c>
       <c r="T14" t="n">
-        <v>3383.483935388912</v>
+        <v>3383.483935388909</v>
       </c>
       <c r="U14" t="n">
-        <v>3153.964640507003</v>
+        <v>3153.964640507001</v>
       </c>
       <c r="V14" t="n">
-        <v>2846.912935007687</v>
+        <v>2846.912935007686</v>
       </c>
       <c r="W14" t="n">
-        <v>2846.912935007687</v>
+        <v>2518.155461581827</v>
       </c>
       <c r="X14" t="n">
-        <v>2497.458358590863</v>
+        <v>2168.700885165003</v>
       </c>
       <c r="Y14" t="n">
-        <v>2497.458358590863</v>
+        <v>1802.572735033446</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>948.0663378047069</v>
+        <v>948.0663378047068</v>
       </c>
       <c r="C15" t="n">
-        <v>773.6133085235799</v>
+        <v>773.6133085235798</v>
       </c>
       <c r="D15" t="n">
-        <v>624.6788988623287</v>
+        <v>624.6788988623285</v>
       </c>
       <c r="E15" t="n">
-        <v>465.4414438568732</v>
+        <v>465.441443856873</v>
       </c>
       <c r="F15" t="n">
-        <v>318.9068858837582</v>
+        <v>318.906885883758</v>
       </c>
       <c r="G15" t="n">
-        <v>182.5437857163762</v>
+        <v>182.5437857163761</v>
       </c>
       <c r="H15" t="n">
-        <v>92.04189135424375</v>
+        <v>92.04189135424366</v>
       </c>
       <c r="I15" t="n">
-        <v>73.0345997557817</v>
+        <v>73.03459975578163</v>
       </c>
       <c r="J15" t="n">
         <v>166.711869246399</v>
       </c>
       <c r="K15" t="n">
-        <v>404.9760682267462</v>
+        <v>404.9760682267461</v>
       </c>
       <c r="L15" t="n">
-        <v>771.6742285394116</v>
+        <v>771.6742285394115</v>
       </c>
       <c r="M15" t="n">
         <v>1218.950553761727</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>557.8445166115147</v>
+        <v>467.9669701456515</v>
       </c>
       <c r="C16" t="n">
-        <v>412.9195155278627</v>
+        <v>323.0419690619999</v>
       </c>
       <c r="D16" t="n">
-        <v>412.9195155278627</v>
+        <v>196.9365114939195</v>
       </c>
       <c r="E16" t="n">
-        <v>412.9195155278627</v>
+        <v>73.03459975578163</v>
       </c>
       <c r="F16" t="n">
-        <v>290.0407498742076</v>
+        <v>73.03459975578163</v>
       </c>
       <c r="G16" t="n">
-        <v>146.3490950931814</v>
+        <v>73.03459975578163</v>
       </c>
       <c r="H16" t="n">
-        <v>146.3490950931814</v>
+        <v>73.03459975578163</v>
       </c>
       <c r="I16" t="n">
-        <v>73.0345997557817</v>
+        <v>73.03459975578163</v>
       </c>
       <c r="J16" t="n">
-        <v>141.6905915282715</v>
+        <v>141.6905915282719</v>
       </c>
       <c r="K16" t="n">
-        <v>369.2111338027019</v>
+        <v>369.2111338027029</v>
       </c>
       <c r="L16" t="n">
-        <v>709.3042915767523</v>
+        <v>709.3042915767535</v>
       </c>
       <c r="M16" t="n">
-        <v>1076.994696501855</v>
+        <v>1076.994696501857</v>
       </c>
       <c r="N16" t="n">
-        <v>1441.936432533274</v>
+        <v>1441.936432533276</v>
       </c>
       <c r="O16" t="n">
-        <v>1764.799390779242</v>
+        <v>1764.799390779244</v>
       </c>
       <c r="P16" t="n">
-        <v>2020.940250538456</v>
+        <v>2020.940250538458</v>
       </c>
       <c r="Q16" t="n">
-        <v>2122.083906016524</v>
+        <v>2122.083906016527</v>
       </c>
       <c r="R16" t="n">
-        <v>2056.264630618308</v>
+        <v>2056.264630618311</v>
       </c>
       <c r="S16" t="n">
-        <v>1888.589928289389</v>
+        <v>1888.589928289392</v>
       </c>
       <c r="T16" t="n">
-        <v>1690.83449470317</v>
+        <v>1690.834494703174</v>
       </c>
       <c r="U16" t="n">
-        <v>1425.742809673069</v>
+        <v>1425.742809673073</v>
       </c>
       <c r="V16" t="n">
-        <v>1381.647554143243</v>
+        <v>1195.069503311441</v>
       </c>
       <c r="W16" t="n">
-        <v>1116.241565950537</v>
+        <v>929.6635151187356</v>
       </c>
       <c r="X16" t="n">
-        <v>912.2631968967746</v>
+        <v>725.6851460649737</v>
       </c>
       <c r="Y16" t="n">
-        <v>715.4817995974995</v>
+        <v>625.6042531316359</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1661.458953707058</v>
+        <v>1627.491685644123</v>
       </c>
       <c r="C17" t="n">
-        <v>1339.94606971472</v>
+        <v>1627.491685644123</v>
       </c>
       <c r="D17" t="n">
-        <v>1029.130004056042</v>
+        <v>1392.666275897577</v>
       </c>
       <c r="E17" t="n">
-        <v>690.7913844058714</v>
+        <v>1054.327656247406</v>
       </c>
       <c r="F17" t="n">
         <v>690.7913844058714</v>
@@ -5507,58 +5507,58 @@
         <v>323.1685671989412</v>
       </c>
       <c r="H17" t="n">
-        <v>73.0345997557817</v>
+        <v>73.03459975578163</v>
       </c>
       <c r="I17" t="n">
-        <v>73.0345997557817</v>
+        <v>73.03459975578163</v>
       </c>
       <c r="J17" t="n">
         <v>261.9137307148072</v>
       </c>
       <c r="K17" t="n">
-        <v>595.7331044046539</v>
+        <v>595.7331044046538</v>
       </c>
       <c r="L17" t="n">
         <v>1046.767317653063</v>
       </c>
       <c r="M17" t="n">
-        <v>1580.299222324988</v>
+        <v>1580.299222324987</v>
       </c>
       <c r="N17" t="n">
-        <v>2127.07803938377</v>
+        <v>2127.078039383769</v>
       </c>
       <c r="O17" t="n">
-        <v>2949.652193119422</v>
+        <v>2949.652193119418</v>
       </c>
       <c r="P17" t="n">
-        <v>3344.4265594766</v>
+        <v>3344.426559476597</v>
       </c>
       <c r="Q17" t="n">
-        <v>3592.712921232282</v>
+        <v>3592.712921232279</v>
       </c>
       <c r="R17" t="n">
-        <v>3651.729987789085</v>
+        <v>3651.729987789081</v>
       </c>
       <c r="S17" t="n">
-        <v>3588.888952264253</v>
+        <v>3588.88895226425</v>
       </c>
       <c r="T17" t="n">
-        <v>3430.360837596548</v>
+        <v>3430.360837596545</v>
       </c>
       <c r="U17" t="n">
-        <v>3224.279993818458</v>
+        <v>3224.279993818455</v>
       </c>
       <c r="V17" t="n">
-        <v>2940.666739422961</v>
+        <v>2940.666739422958</v>
       </c>
       <c r="W17" t="n">
-        <v>2635.34771710092</v>
+        <v>2635.347717100917</v>
       </c>
       <c r="X17" t="n">
-        <v>2309.331591787913</v>
+        <v>2309.33159178791</v>
       </c>
       <c r="Y17" t="n">
-        <v>2000.609160823107</v>
+        <v>1966.641892760171</v>
       </c>
     </row>
     <row r="18">
@@ -5583,22 +5583,22 @@
         <v>318.9068858837584</v>
       </c>
       <c r="G18" t="n">
-        <v>182.5437857163768</v>
+        <v>182.5437857163766</v>
       </c>
       <c r="H18" t="n">
-        <v>92.04189135424411</v>
+        <v>92.04189135424404</v>
       </c>
       <c r="I18" t="n">
-        <v>73.0345997557817</v>
+        <v>73.03459975578163</v>
       </c>
       <c r="J18" t="n">
-        <v>166.7118692463989</v>
+        <v>166.711869246399</v>
       </c>
       <c r="K18" t="n">
         <v>404.9760682267462</v>
       </c>
       <c r="L18" t="n">
-        <v>771.6742285394114</v>
+        <v>771.6742285394113</v>
       </c>
       <c r="M18" t="n">
         <v>1218.950553761727</v>
@@ -5668,19 +5668,19 @@
         <v>122.9106439893631</v>
       </c>
       <c r="I19" t="n">
-        <v>73.0345997557817</v>
+        <v>73.03459975578163</v>
       </c>
       <c r="J19" t="n">
-        <v>164.6626174551239</v>
+        <v>164.6626174551238</v>
       </c>
       <c r="K19" t="n">
-        <v>415.155185656407</v>
+        <v>415.1551856564068</v>
       </c>
       <c r="L19" t="n">
-        <v>778.2203693573101</v>
+        <v>778.2203693573097</v>
       </c>
       <c r="M19" t="n">
-        <v>1168.882800209266</v>
+        <v>1168.882800209265</v>
       </c>
       <c r="N19" t="n">
         <v>1556.796562167537</v>
@@ -5695,13 +5695,13 @@
         <v>2305.860113431344</v>
       </c>
       <c r="R19" t="n">
-        <v>2263.479289136946</v>
+        <v>2263.479289136945</v>
       </c>
       <c r="S19" t="n">
         <v>2119.243037911845</v>
       </c>
       <c r="T19" t="n">
-        <v>1944.926055429445</v>
+        <v>1944.926055429444</v>
       </c>
       <c r="U19" t="n">
         <v>1703.272821503161</v>
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1774.861258105432</v>
+        <v>1627.491685644123</v>
       </c>
       <c r="C20" t="n">
-        <v>1453.348374113094</v>
+        <v>1305.978801651784</v>
       </c>
       <c r="D20" t="n">
-        <v>1142.532308454417</v>
+        <v>995.1627359931072</v>
       </c>
       <c r="E20" t="n">
-        <v>804.193688804246</v>
+        <v>690.7913844058714</v>
       </c>
       <c r="F20" t="n">
-        <v>440.6574169627119</v>
+        <v>690.7913844058714</v>
       </c>
       <c r="G20" t="n">
-        <v>73.0345997557817</v>
+        <v>323.1685671989412</v>
       </c>
       <c r="H20" t="n">
-        <v>73.0345997557817</v>
+        <v>73.03459975578163</v>
       </c>
       <c r="I20" t="n">
-        <v>73.0345997557817</v>
+        <v>73.03459975578163</v>
       </c>
       <c r="J20" t="n">
         <v>261.9137307148071</v>
       </c>
       <c r="K20" t="n">
-        <v>595.7331044046537</v>
+        <v>595.7331044046535</v>
       </c>
       <c r="L20" t="n">
         <v>1046.767317653062</v>
       </c>
       <c r="M20" t="n">
-        <v>1899.900905181302</v>
+        <v>1580.299222324987</v>
       </c>
       <c r="N20" t="n">
-        <v>2446.679722240085</v>
+        <v>2127.078039383769</v>
       </c>
       <c r="O20" t="n">
-        <v>2949.652193119422</v>
+        <v>2949.652193119418</v>
       </c>
       <c r="P20" t="n">
-        <v>3344.4265594766</v>
+        <v>3344.426559476597</v>
       </c>
       <c r="Q20" t="n">
-        <v>3592.712921232282</v>
+        <v>3592.712921232279</v>
       </c>
       <c r="R20" t="n">
-        <v>3651.729987789085</v>
+        <v>3651.729987789081</v>
       </c>
       <c r="S20" t="n">
-        <v>3588.888952264253</v>
+        <v>3588.88895226425</v>
       </c>
       <c r="T20" t="n">
-        <v>3577.730410057854</v>
+        <v>3430.360837596545</v>
       </c>
       <c r="U20" t="n">
-        <v>3371.649566279764</v>
+        <v>3224.279993818454</v>
       </c>
       <c r="V20" t="n">
-        <v>3088.036311884267</v>
+        <v>2940.666739422957</v>
       </c>
       <c r="W20" t="n">
-        <v>2782.717289562226</v>
+        <v>2635.347717100916</v>
       </c>
       <c r="X20" t="n">
-        <v>2456.701164249219</v>
+        <v>2309.33159178791</v>
       </c>
       <c r="Y20" t="n">
-        <v>2114.011465221481</v>
+        <v>1966.641892760171</v>
       </c>
     </row>
     <row r="21">
@@ -5826,16 +5826,16 @@
         <v>92.04189135424366</v>
       </c>
       <c r="I21" t="n">
-        <v>73.0345997557817</v>
+        <v>73.03459975578163</v>
       </c>
       <c r="J21" t="n">
         <v>166.711869246399</v>
       </c>
       <c r="K21" t="n">
-        <v>404.9760682267462</v>
+        <v>404.9760682267461</v>
       </c>
       <c r="L21" t="n">
-        <v>771.6742285394116</v>
+        <v>771.6742285394115</v>
       </c>
       <c r="M21" t="n">
         <v>1218.950553761727</v>
@@ -5884,67 +5884,67 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>765.9887331288925</v>
+        <v>765.9887331288928</v>
       </c>
       <c r="C22" t="n">
-        <v>644.5021831490589</v>
+        <v>644.5021831490592</v>
       </c>
       <c r="D22" t="n">
-        <v>541.8351766847964</v>
+        <v>541.8351766847967</v>
       </c>
       <c r="E22" t="n">
-        <v>441.3717160504765</v>
+        <v>441.3717160504768</v>
       </c>
       <c r="F22" t="n">
-        <v>341.9314015006394</v>
+        <v>341.9314015006397</v>
       </c>
       <c r="G22" t="n">
-        <v>221.6781978234319</v>
+        <v>221.678197823432</v>
       </c>
       <c r="H22" t="n">
-        <v>122.9106439893631</v>
+        <v>122.910643989363</v>
       </c>
       <c r="I22" t="n">
-        <v>73.0345997557817</v>
+        <v>73.03459975578163</v>
       </c>
       <c r="J22" t="n">
         <v>164.6626174551238</v>
       </c>
       <c r="K22" t="n">
-        <v>415.1551856564068</v>
+        <v>415.1551856564067</v>
       </c>
       <c r="L22" t="n">
-        <v>778.2203693573097</v>
+        <v>778.2203693573103</v>
       </c>
       <c r="M22" t="n">
-        <v>1168.882800209265</v>
+        <v>1168.882800209266</v>
       </c>
       <c r="N22" t="n">
-        <v>1556.796562167536</v>
+        <v>1556.796562167537</v>
       </c>
       <c r="O22" t="n">
-        <v>1902.631546340356</v>
+        <v>1902.631546340357</v>
       </c>
       <c r="P22" t="n">
-        <v>2181.744432026422</v>
+        <v>2181.744432026423</v>
       </c>
       <c r="Q22" t="n">
         <v>2305.860113431344</v>
       </c>
       <c r="R22" t="n">
-        <v>2263.479289136944</v>
+        <v>2263.479289136946</v>
       </c>
       <c r="S22" t="n">
-        <v>2119.243037911844</v>
+        <v>2119.243037911845</v>
       </c>
       <c r="T22" t="n">
-        <v>1944.926055429443</v>
+        <v>1944.926055429445</v>
       </c>
       <c r="U22" t="n">
         <v>1703.272821503161</v>
       </c>
       <c r="V22" t="n">
-        <v>1496.037966245347</v>
+        <v>1496.037966245348</v>
       </c>
       <c r="W22" t="n">
         <v>1254.07042915646</v>
@@ -5953,7 +5953,7 @@
         <v>1073.530511206516</v>
       </c>
       <c r="Y22" t="n">
-        <v>900.187565011059</v>
+        <v>900.1875650110593</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C23" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D23" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E23" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F23" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G23" t="n">
         <v>331.2808843398487</v>
@@ -5987,28 +5987,28 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J23" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K23" t="n">
-        <v>603.8454215455611</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L23" t="n">
-        <v>1468.364237198916</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.89614187084</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N23" t="n">
-        <v>2852.295579285459</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O23" t="n">
-        <v>3355.268050164796</v>
+        <v>3182.560655874485</v>
       </c>
       <c r="P23" t="n">
-        <v>3750.042416521974</v>
+        <v>3577.335022231663</v>
       </c>
       <c r="Q23" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603404</v>
       </c>
       <c r="R23" t="n">
         <v>4057.345844834459</v>
@@ -6023,16 +6023,16 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V23" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W23" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X23" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y23" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="24">
@@ -6148,22 +6148,22 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K25" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973152</v>
       </c>
       <c r="L25" t="n">
-        <v>786.3326864982171</v>
+        <v>786.332686498218</v>
       </c>
       <c r="M25" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350174</v>
       </c>
       <c r="N25" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O25" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P25" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q25" t="n">
         <v>2313.972430572252</v>
@@ -6212,10 +6212,10 @@
         <v>1080.356100004523</v>
       </c>
       <c r="F26" t="n">
-        <v>711.3670939754463</v>
+        <v>711.3670939754466</v>
       </c>
       <c r="G26" t="n">
-        <v>338.2915425809738</v>
+        <v>338.2915425809742</v>
       </c>
       <c r="H26" t="n">
         <v>82.7048409502726</v>
@@ -6230,22 +6230,22 @@
         <v>605.4033455991446</v>
       </c>
       <c r="L26" t="n">
-        <v>1206.715764312753</v>
+        <v>1056.437558847553</v>
       </c>
       <c r="M26" t="n">
-        <v>1740.247668984677</v>
+        <v>1999.772988141827</v>
       </c>
       <c r="N26" t="n">
-        <v>2719.999941211324</v>
+        <v>2546.55180520061</v>
       </c>
       <c r="O26" t="n">
-        <v>3222.972412090661</v>
+        <v>3049.524276079947</v>
       </c>
       <c r="P26" t="n">
-        <v>3617.746778447839</v>
+        <v>3762.879363526892</v>
       </c>
       <c r="Q26" t="n">
-        <v>4076.224980956827</v>
+        <v>4011.165725282574</v>
       </c>
       <c r="R26" t="n">
         <v>4135.24204751363</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>731.6641268997664</v>
+        <v>683.8305684178258</v>
       </c>
       <c r="C28" t="n">
-        <v>604.7248427323907</v>
+        <v>556.8912842504502</v>
       </c>
       <c r="D28" t="n">
-        <v>496.6051020805862</v>
+        <v>448.7715435986457</v>
       </c>
       <c r="E28" t="n">
-        <v>390.6889072587244</v>
+        <v>342.855348776784</v>
       </c>
       <c r="F28" t="n">
-        <v>285.7958585213452</v>
+        <v>237.9623000394049</v>
       </c>
       <c r="G28" t="n">
-        <v>160.0899206565954</v>
+        <v>112.2563621746548</v>
       </c>
       <c r="H28" t="n">
         <v>82.7048409502726</v>
@@ -6388,7 +6388,7 @@
         <v>414.1369772964779</v>
       </c>
       <c r="L28" t="n">
-        <v>771.8579362201707</v>
+        <v>771.8579362201708</v>
       </c>
       <c r="M28" t="n">
         <v>1157.176142294916</v>
@@ -6406,28 +6406,28 @@
         <v>2272.776556408155</v>
       </c>
       <c r="R28" t="n">
-        <v>2272.776556408155</v>
+        <v>2224.942997926215</v>
       </c>
       <c r="S28" t="n">
-        <v>2123.087570995513</v>
+        <v>2075.254012513572</v>
       </c>
       <c r="T28" t="n">
-        <v>1943.31785432557</v>
+        <v>1895.484295843629</v>
       </c>
       <c r="U28" t="n">
-        <v>1696.211886211745</v>
+        <v>1648.378327729804</v>
       </c>
       <c r="V28" t="n">
-        <v>1483.524296766389</v>
+        <v>1435.690738284449</v>
       </c>
       <c r="W28" t="n">
-        <v>1236.10402548996</v>
+        <v>1188.270467008019</v>
       </c>
       <c r="X28" t="n">
-        <v>1050.111373352474</v>
+        <v>1002.277814870533</v>
       </c>
       <c r="Y28" t="n">
-        <v>871.3156929694749</v>
+        <v>823.4821344875343</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2067.381871868337</v>
+        <v>2067.381871868335</v>
       </c>
       <c r="C29" t="n">
-        <v>1740.416253688456</v>
+        <v>1740.416253688455</v>
       </c>
       <c r="D29" t="n">
-        <v>1424.147453842237</v>
+        <v>1424.147453842236</v>
       </c>
       <c r="E29" t="n">
-        <v>1080.356100004524</v>
+        <v>1080.356100004523</v>
       </c>
       <c r="F29" t="n">
-        <v>711.3670939754479</v>
+        <v>711.3670939754463</v>
       </c>
       <c r="G29" t="n">
         <v>338.2915425809741</v>
       </c>
       <c r="H29" t="n">
-        <v>82.70484095027261</v>
+        <v>82.7048409502726</v>
       </c>
       <c r="I29" t="n">
-        <v>82.70484095027261</v>
+        <v>82.7048409502726</v>
       </c>
       <c r="J29" t="n">
-        <v>271.583971909298</v>
+        <v>302.0720797258438</v>
       </c>
       <c r="K29" t="n">
-        <v>926.3073040445976</v>
+        <v>956.7954118611433</v>
       </c>
       <c r="L29" t="n">
-        <v>1404.86266207602</v>
+        <v>1407.829625109552</v>
       </c>
       <c r="M29" t="n">
-        <v>2383.412964905848</v>
+        <v>1941.361529781477</v>
       </c>
       <c r="N29" t="n">
-        <v>2930.191781964631</v>
+        <v>2488.140346840259</v>
       </c>
       <c r="O29" t="n">
-        <v>3433.164252843967</v>
+        <v>3368.104997169714</v>
       </c>
       <c r="P29" t="n">
-        <v>3827.938619201146</v>
+        <v>3762.879363526892</v>
       </c>
       <c r="Q29" t="n">
-        <v>4076.224980956828</v>
+        <v>4011.165725282574</v>
       </c>
       <c r="R29" t="n">
         <v>4135.24204751363</v>
       </c>
       <c r="S29" t="n">
-        <v>4066.948277801257</v>
+        <v>4066.948277801256</v>
       </c>
       <c r="T29" t="n">
-        <v>3902.96742894601</v>
+        <v>3902.967428946009</v>
       </c>
       <c r="U29" t="n">
-        <v>3691.433850980378</v>
+        <v>3691.433850980377</v>
       </c>
       <c r="V29" t="n">
-        <v>3402.367862397339</v>
+        <v>3402.367862397338</v>
       </c>
       <c r="W29" t="n">
         <v>3091.596105887756</v>
       </c>
       <c r="X29" t="n">
-        <v>2760.127246387208</v>
+        <v>2760.127246387207</v>
       </c>
       <c r="Y29" t="n">
-        <v>2411.984813171927</v>
+        <v>2411.984813171926</v>
       </c>
     </row>
     <row r="30">
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>957.7365789991979</v>
+        <v>957.7365789991978</v>
       </c>
       <c r="C30" t="n">
-        <v>783.283549718071</v>
+        <v>783.2835497180708</v>
       </c>
       <c r="D30" t="n">
-        <v>634.3491400568197</v>
+        <v>634.3491400568196</v>
       </c>
       <c r="E30" t="n">
-        <v>475.1116850513642</v>
+        <v>475.111685051364</v>
       </c>
       <c r="F30" t="n">
-        <v>328.5771270782492</v>
+        <v>328.577127078249</v>
       </c>
       <c r="G30" t="n">
-        <v>192.2140269108673</v>
+        <v>192.2140269108671</v>
       </c>
       <c r="H30" t="n">
-        <v>101.7121325487348</v>
+        <v>101.7121325487346</v>
       </c>
       <c r="I30" t="n">
-        <v>82.70484095027261</v>
+        <v>82.7048409502726</v>
       </c>
       <c r="J30" t="n">
-        <v>176.38211044089</v>
+        <v>176.3821104408899</v>
       </c>
       <c r="K30" t="n">
         <v>414.6463094212371</v>
@@ -6579,7 +6579,7 @@
         <v>1795.801071717954</v>
       </c>
       <c r="W30" t="n">
-        <v>1541.563714989753</v>
+        <v>1541.563714989752</v>
       </c>
       <c r="X30" t="n">
         <v>1333.71221478422</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>683.830568417826</v>
+        <v>683.8305684178255</v>
       </c>
       <c r="C31" t="n">
-        <v>556.8912842504503</v>
+        <v>556.8912842504496</v>
       </c>
       <c r="D31" t="n">
-        <v>448.7715435986458</v>
+        <v>448.7715435986452</v>
       </c>
       <c r="E31" t="n">
-        <v>342.8553487767841</v>
+        <v>342.8553487767833</v>
       </c>
       <c r="F31" t="n">
-        <v>237.962300039405</v>
+        <v>237.9623000394042</v>
       </c>
       <c r="G31" t="n">
-        <v>112.2563621746552</v>
+        <v>112.2563621746547</v>
       </c>
       <c r="H31" t="n">
-        <v>82.70484095027261</v>
+        <v>112.2563621746547</v>
       </c>
       <c r="I31" t="n">
-        <v>82.70484095027261</v>
+        <v>82.7048409502726</v>
       </c>
       <c r="J31" t="n">
-        <v>168.9886338724049</v>
+        <v>168.9886338724048</v>
       </c>
       <c r="K31" t="n">
         <v>414.1369772964779</v>
@@ -6643,7 +6643,7 @@
         <v>2272.776556408155</v>
       </c>
       <c r="R31" t="n">
-        <v>2224.942997926215</v>
+        <v>2224.942997926214</v>
       </c>
       <c r="S31" t="n">
         <v>2075.254012513572</v>
@@ -6655,16 +6655,16 @@
         <v>1648.378327729804</v>
       </c>
       <c r="V31" t="n">
-        <v>1435.690738284449</v>
+        <v>1435.690738284448</v>
       </c>
       <c r="W31" t="n">
-        <v>1188.27046700802</v>
+        <v>1188.270467008019</v>
       </c>
       <c r="X31" t="n">
         <v>1002.277814870533</v>
       </c>
       <c r="Y31" t="n">
-        <v>823.4821344875344</v>
+        <v>823.4821344875338</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2049.792795308133</v>
+        <v>2033.441247741872</v>
       </c>
       <c r="C32" t="n">
         <v>1711.928363749534</v>
@@ -6692,58 +6692,58 @@
         <v>331.6145893922213</v>
       </c>
       <c r="H32" t="n">
-        <v>81.48062194906181</v>
+        <v>81.48062194906178</v>
       </c>
       <c r="I32" t="n">
-        <v>81.48062194906181</v>
+        <v>81.48062194906178</v>
       </c>
       <c r="J32" t="n">
-        <v>437.7654019284403</v>
+        <v>270.3597529080872</v>
       </c>
       <c r="K32" t="n">
-        <v>771.5847756182868</v>
+        <v>604.1791265979336</v>
       </c>
       <c r="L32" t="n">
-        <v>1278.592456341227</v>
+        <v>1136.426834295706</v>
       </c>
       <c r="M32" t="n">
-        <v>2257.142759171055</v>
+        <v>1669.958738967631</v>
       </c>
       <c r="N32" t="n">
-        <v>2803.921576229838</v>
+        <v>2216.737556026413</v>
       </c>
       <c r="O32" t="n">
-        <v>3306.894047109175</v>
+        <v>3096.702206355868</v>
       </c>
       <c r="P32" t="n">
-        <v>3701.668413466353</v>
+        <v>3491.476572713046</v>
       </c>
       <c r="Q32" t="n">
-        <v>3949.954775222035</v>
+        <v>3949.954775222034</v>
       </c>
       <c r="R32" t="n">
-        <v>4074.03109745309</v>
+        <v>4074.031097453089</v>
       </c>
       <c r="S32" t="n">
-        <v>4011.190061928259</v>
+        <v>4011.190061928258</v>
       </c>
       <c r="T32" t="n">
-        <v>3852.661947260554</v>
+        <v>3852.661947260553</v>
       </c>
       <c r="U32" t="n">
-        <v>3646.581103482464</v>
+        <v>3646.581103482463</v>
       </c>
       <c r="V32" t="n">
         <v>3362.967849086966</v>
       </c>
       <c r="W32" t="n">
-        <v>3057.648826764926</v>
+        <v>3041.297279198666</v>
       </c>
       <c r="X32" t="n">
-        <v>2731.632701451919</v>
+        <v>2715.281153885659</v>
       </c>
       <c r="Y32" t="n">
-        <v>2388.943002424181</v>
+        <v>2372.591454857921</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>100.4879135475236</v>
       </c>
       <c r="I33" t="n">
-        <v>81.48062194906181</v>
+        <v>81.48062194906178</v>
       </c>
       <c r="J33" t="n">
         <v>175.1578914396791</v>
@@ -6853,13 +6853,13 @@
         <v>131.356666182643</v>
       </c>
       <c r="I34" t="n">
-        <v>81.48062194906181</v>
+        <v>81.48062194906178</v>
       </c>
       <c r="J34" t="n">
-        <v>173.1086396484039</v>
+        <v>173.1086396484038</v>
       </c>
       <c r="K34" t="n">
-        <v>423.6012078496869</v>
+        <v>423.6012078496868</v>
       </c>
       <c r="L34" t="n">
         <v>786.6663915505897</v>
@@ -6868,19 +6868,19 @@
         <v>1177.328822402545</v>
       </c>
       <c r="N34" t="n">
-        <v>1565.242584360816</v>
+        <v>1565.242584360817</v>
       </c>
       <c r="O34" t="n">
-        <v>1911.077568533636</v>
+        <v>1911.077568533637</v>
       </c>
       <c r="P34" t="n">
         <v>2190.190454219703</v>
       </c>
       <c r="Q34" t="n">
-        <v>2314.306135624623</v>
+        <v>2314.306135624624</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.925311330225</v>
+        <v>2271.925311330226</v>
       </c>
       <c r="S34" t="n">
         <v>2127.689060105125</v>
@@ -6914,10 +6914,10 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E35" t="n">
         <v>1062.439973388313</v>
@@ -6935,19 +6935,19 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J35" t="n">
-        <v>291.5583700766102</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K35" t="n">
-        <v>625.3777437664567</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L35" t="n">
-        <v>1076.411957014865</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M35" t="n">
-        <v>1609.94386168679</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N35" t="n">
-        <v>2156.722678745572</v>
+        <v>2533.71485819569</v>
       </c>
       <c r="O35" t="n">
         <v>3036.687329075027</v>
@@ -6974,13 +6974,13 @@
         <v>3346.282596468333</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="36">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D37" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913839</v>
       </c>
       <c r="F37" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415468</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643392</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H37" t="n">
         <v>131.0229611302702</v>
@@ -7093,19 +7093,19 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J37" t="n">
-        <v>172.774934596031</v>
+        <v>172.7749345960316</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973139</v>
+        <v>423.2675027973146</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982166</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N37" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O37" t="n">
         <v>1910.743863481264</v>
@@ -7117,13 +7117,13 @@
         <v>2313.972430572252</v>
       </c>
       <c r="R37" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S37" t="n">
         <v>2127.355355052752</v>
       </c>
       <c r="T37" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U37" t="n">
         <v>1711.385138644068</v>
@@ -7138,7 +7138,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467786</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
@@ -7178,16 +7178,16 @@
         <v>603.8454215455611</v>
       </c>
       <c r="L38" t="n">
-        <v>1054.87963479397</v>
+        <v>1116.774618643541</v>
       </c>
       <c r="M38" t="n">
-        <v>1588.411539465894</v>
+        <v>2095.32492147337</v>
       </c>
       <c r="N38" t="n">
-        <v>2135.190356524677</v>
+        <v>2642.103738532152</v>
       </c>
       <c r="O38" t="n">
-        <v>3015.155006854131</v>
+        <v>3145.076209411489</v>
       </c>
       <c r="P38" t="n">
         <v>3539.850575768667</v>
@@ -7205,7 +7205,7 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V38" t="n">
         <v>3346.282596468334</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698003</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899667</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257044</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913846</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415475</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643398</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302707</v>
       </c>
       <c r="I40" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M40" t="n">
         <v>1176.995117350173</v>
@@ -7388,7 +7388,7 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D41" t="n">
         <v>1400.778593038484</v>
@@ -7397,10 +7397,10 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G41" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H41" t="n">
         <v>81.14691689668915</v>
@@ -7409,25 +7409,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J41" t="n">
-        <v>393.2994530991692</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K41" t="n">
-        <v>727.1188267890157</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L41" t="n">
-        <v>1178.153040037424</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M41" t="n">
-        <v>1711.684944709349</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N41" t="n">
-        <v>2258.463761768131</v>
+        <v>2135.190356524677</v>
       </c>
       <c r="O41" t="n">
-        <v>2761.436232647468</v>
+        <v>3015.155006854131</v>
       </c>
       <c r="P41" t="n">
-        <v>3474.791320094414</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q41" t="n">
         <v>3933.269522603402</v>
@@ -7442,7 +7442,7 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U41" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V41" t="n">
         <v>3346.282596468334</v>
@@ -7451,7 +7451,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y41" t="n">
         <v>2372.257749805548</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502697995</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899659</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257035</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913837</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415466</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643389</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I43" t="n">
         <v>81.14691689668915</v>
@@ -7582,10 +7582,10 @@
         <v>1564.908879308444</v>
       </c>
       <c r="O43" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q43" t="n">
         <v>2313.972430572251</v>
@@ -7603,7 +7603,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V43" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W43" t="n">
         <v>1262.182746297367</v>
@@ -7612,7 +7612,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519659</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="44">
@@ -7634,16 +7634,16 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G44" t="n">
         <v>331.2808843398486</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J44" t="n">
         <v>270.0260478557146</v>
@@ -7661,28 +7661,28 @@
         <v>2580.208754682581</v>
       </c>
       <c r="O44" t="n">
-        <v>3083.181225561918</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P44" t="n">
-        <v>3477.955591919096</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q44" t="n">
-        <v>3936.433794428084</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W44" t="n">
         <v>3040.963574146293</v>
@@ -7722,7 +7722,7 @@
         <v>100.1542084951513</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J45" t="n">
         <v>174.8241863873065</v>
@@ -7798,10 +7798,10 @@
         <v>229.7905149643393</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J46" t="n">
         <v>172.7749345960314</v>
@@ -7810,7 +7810,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M46" t="n">
         <v>1176.995117350172</v>
@@ -8456,19 +8456,19 @@
         <v>235.3925885601156</v>
       </c>
       <c r="L8" t="n">
-        <v>251.0691524851223</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>245.6489707424078</v>
       </c>
       <c r="N8" t="n">
-        <v>244.097508686872</v>
+        <v>244.715801111726</v>
       </c>
       <c r="O8" t="n">
-        <v>245.4009489368218</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>245.9174408455507</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,10 +8535,10 @@
         <v>153.144176489494</v>
       </c>
       <c r="L9" t="n">
-        <v>153.8571172950092</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>157.4367714371534</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
@@ -8547,10 +8547,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>149.2771449294653</v>
+        <v>148.6588525046114</v>
       </c>
       <c r="Q9" t="n">
-        <v>154.6662191763026</v>
+        <v>155.2845116011566</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,10 +8614,10 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>149.5691213715194</v>
+        <v>150.1874137963733</v>
       </c>
       <c r="M10" t="n">
-        <v>154.2285214627401</v>
+        <v>153.6102290378862</v>
       </c>
       <c r="N10" t="n">
         <v>142.9882819803682</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>322.8299826831466</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8942,10 +8942,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>110.5149920232387</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>322.829982683146</v>
+        <v>322.8299826831432</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9407,13 +9407,13 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>322.8299826831468</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>322.8299826831434</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>306.6874953089251</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>108.7354935515743</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9878,25 +9878,25 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>151.7961671365647</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>413.9429541639892</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,22 +10109,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>30.79606850156134</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>27.7991361444578</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,28 +10346,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>56.53885603487998</v>
+        <v>82.03383277713505</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>2.025046796916286e-13</v>
+        <v>1.740829702612245e-13</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>21.74982042514705</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10595,10 +10595,10 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>402.5500016878926</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10826,19 +10826,19 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>62.52018570663751</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>131.2335379367248</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>124.5185911550046</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11072,13 +11072,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>277.8321087236471</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11309,16 +11309,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>209.1187564935601</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>62.52018570663689</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>-1.06581410364015e-13</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23261,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>330.9119715948706</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>358.1593000464491</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>383.1049757158987</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>270.8366943615081</v>
+        <v>270.8366943615078</v>
       </c>
       <c r="I11" t="n">
-        <v>17.80585974711357</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>87.08240622305985</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>345.9600306526567</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>40.49599245534988</v>
       </c>
     </row>
     <row r="12">
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>124.8444029923996</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>121.6499779971189</v>
+        <v>121.6499779971185</v>
       </c>
       <c r="G13" t="n">
-        <v>142.2547382332158</v>
+        <v>142.2547382332155</v>
       </c>
       <c r="H13" t="n">
-        <v>26.85802641501836</v>
+        <v>91.8730412183865</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>72.58135038402537</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>262.4407681798005</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>341.5018217451948</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>330.9119715948702</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,10 +23507,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>63.77750321138967</v>
       </c>
       <c r="H14" t="n">
-        <v>48.25452922961515</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>325.4698986916006</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>362.4668686302412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>124.8444029924</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>122.6628926207568</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>121.6499779971185</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>142.2547382332155</v>
       </c>
       <c r="H16" t="n">
-        <v>120.9839448885084</v>
+        <v>120.983944888508</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>72.58135038402534</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>184.7122703234885</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>95.73349932227769</v>
       </c>
     </row>
     <row r="17">
@@ -23732,16 +23732,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>75.23074935301007</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>33.62759538230303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23975,16 +23975,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>33.62759538230569</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>145.8958767366935</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>26.56685623213525</v>
+        <v>73.92207912925645</v>
       </c>
       <c r="I28" t="n">
         <v>54.77549063691215</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.35522289712139</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>73.9220791292561</v>
+        <v>103.1780851413948</v>
       </c>
       <c r="I31" t="n">
-        <v>54.77549063691215</v>
+        <v>25.51948462477387</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>894802.5265895495</v>
+        <v>894802.52658955</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>934006.8547359285</v>
+        <v>934006.8547359289</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>983684.0868065971</v>
+        <v>983684.0868065966</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>983684.086806597</v>
+        <v>983684.0868065966</v>
       </c>
     </row>
     <row r="9">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>430120.077826445</v>
+        <v>430120.0778264451</v>
       </c>
       <c r="C2" t="n">
-        <v>430120.077826445</v>
+        <v>430120.0778264451</v>
       </c>
       <c r="D2" t="n">
         <v>431046.9291787487</v>
       </c>
       <c r="E2" t="n">
-        <v>380088.5378761666</v>
+        <v>380088.5378761667</v>
       </c>
       <c r="F2" t="n">
-        <v>393311.1306594665</v>
+        <v>393311.1306594668</v>
       </c>
       <c r="G2" t="n">
-        <v>414601.3729754669</v>
+        <v>414601.3729754671</v>
       </c>
       <c r="H2" t="n">
-        <v>414601.3729754674</v>
+        <v>414601.3729754671</v>
       </c>
       <c r="I2" t="n">
         <v>431046.9291787486</v>
       </c>
       <c r="J2" t="n">
-        <v>429425.3397996949</v>
+        <v>429425.3397996951</v>
       </c>
       <c r="K2" t="n">
         <v>429425.3397996951</v>
       </c>
       <c r="L2" t="n">
+        <v>431046.929178749</v>
+      </c>
+      <c r="M2" t="n">
+        <v>431046.9291787488</v>
+      </c>
+      <c r="N2" t="n">
         <v>431046.9291787489</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>431046.9291787486</v>
+      </c>
+      <c r="P2" t="n">
         <v>431046.9291787489</v>
-      </c>
-      <c r="N2" t="n">
-        <v>431046.9291787486</v>
-      </c>
-      <c r="O2" t="n">
-        <v>431046.9291787488</v>
-      </c>
-      <c r="P2" t="n">
-        <v>431046.9291787488</v>
       </c>
     </row>
     <row r="3">
@@ -26375,34 +26375,34 @@
         <v>1138215.849596719</v>
       </c>
       <c r="F3" t="n">
-        <v>23360.76320971645</v>
+        <v>23360.76320971671</v>
       </c>
       <c r="G3" t="n">
-        <v>18563.25327422412</v>
+        <v>18563.25327422383</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26965.44358034073</v>
+        <v>26965.44358034097</v>
       </c>
       <c r="J3" t="n">
-        <v>19793.55905756389</v>
+        <v>19793.55905756415</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>22881.81875075741</v>
+        <v>22881.81875075711</v>
       </c>
       <c r="M3" t="n">
-        <v>202335.5569689579</v>
+        <v>202335.5569689578</v>
       </c>
       <c r="N3" t="n">
-        <v>19969.1534124869</v>
+        <v>19969.15341248681</v>
       </c>
       <c r="O3" t="n">
-        <v>14698.29054411666</v>
+        <v>14698.29054411694</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,28 +26424,28 @@
         <v>413719.6142666658</v>
       </c>
       <c r="E4" t="n">
-        <v>32572.26833574844</v>
+        <v>32572.2683357488</v>
       </c>
       <c r="F4" t="n">
-        <v>40962.42588769381</v>
+        <v>40962.42588769409</v>
       </c>
       <c r="G4" t="n">
-        <v>64165.93910549465</v>
+        <v>64165.93910549456</v>
       </c>
       <c r="H4" t="n">
-        <v>64165.93910549466</v>
+        <v>64165.93910549457</v>
       </c>
       <c r="I4" t="n">
         <v>74601.16991356855</v>
       </c>
       <c r="J4" t="n">
-        <v>71395.31844273585</v>
+        <v>71395.31844273588</v>
       </c>
       <c r="K4" t="n">
-        <v>71395.31844273589</v>
+        <v>71395.31844273586</v>
       </c>
       <c r="L4" t="n">
-        <v>74294.9575983907</v>
+        <v>74294.95759839073</v>
       </c>
       <c r="M4" t="n">
         <v>74601.16991356853</v>
@@ -26454,10 +26454,10 @@
         <v>74601.16991356853</v>
       </c>
       <c r="O4" t="n">
-        <v>74601.16991356853</v>
+        <v>74601.16991356856</v>
       </c>
       <c r="P4" t="n">
-        <v>74601.16991356856</v>
+        <v>74601.16991356858</v>
       </c>
     </row>
     <row r="5">
@@ -26479,16 +26479,16 @@
         <v>76304.75064739332</v>
       </c>
       <c r="F5" t="n">
-        <v>81261.83797332802</v>
+        <v>81261.83797332799</v>
       </c>
       <c r="G5" t="n">
-        <v>83212.58064771644</v>
+        <v>83212.5806477164</v>
       </c>
       <c r="H5" t="n">
-        <v>83212.58064771644</v>
+        <v>83212.58064771639</v>
       </c>
       <c r="I5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="J5" t="n">
         <v>90108.14210422119</v>
@@ -26497,7 +26497,7 @@
         <v>90108.14210422119</v>
       </c>
       <c r="L5" t="n">
-        <v>89631.55751460933</v>
+        <v>89631.55751460932</v>
       </c>
       <c r="M5" t="n">
         <v>89377.94167480612</v>
@@ -26509,7 +26509,7 @@
         <v>89377.94167480612</v>
       </c>
       <c r="P5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-18279.92078651391</v>
+        <v>-18284.33436438191</v>
       </c>
       <c r="C6" t="n">
-        <v>-18279.92078651397</v>
+        <v>-18284.33436438196</v>
       </c>
       <c r="D6" t="n">
-        <v>-21984.18088316368</v>
+        <v>-21984.18088316362</v>
       </c>
       <c r="E6" t="n">
-        <v>-867004.3307036946</v>
+        <v>-867246.9897098975</v>
       </c>
       <c r="F6" t="n">
-        <v>247726.1035887282</v>
+        <v>247546.4093100647</v>
       </c>
       <c r="G6" t="n">
-        <v>248659.5999480317</v>
+        <v>248581.2877756357</v>
       </c>
       <c r="H6" t="n">
-        <v>267222.8532222563</v>
+        <v>267144.5410498596</v>
       </c>
       <c r="I6" t="n">
-        <v>240102.3740100333</v>
+        <v>240102.374010033</v>
       </c>
       <c r="J6" t="n">
-        <v>248128.320195174</v>
+        <v>248120.5983409879</v>
       </c>
       <c r="K6" t="n">
-        <v>267921.8792527381</v>
+        <v>267914.1573985521</v>
       </c>
       <c r="L6" t="n">
-        <v>244238.5953149915</v>
+        <v>244238.5953149919</v>
       </c>
       <c r="M6" t="n">
         <v>64732.26062141635</v>
       </c>
       <c r="N6" t="n">
-        <v>247098.664177887</v>
+        <v>247098.6641778874</v>
       </c>
       <c r="O6" t="n">
-        <v>252369.5270462575</v>
+        <v>252369.527046257</v>
       </c>
       <c r="P6" t="n">
-        <v>267067.8175903741</v>
+        <v>267067.8175903742</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="F2" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="I2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="J2" t="n">
         <v>41.57692977292594</v>
@@ -26716,13 +26716,13 @@
         <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P2" t="n">
         <v>46.97513661859259</v>
@@ -26796,16 +26796,16 @@
         <v>15.30273751513505</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>912.9324969472711</v>
+        <v>912.9324969472704</v>
       </c>
       <c r="G4" t="n">
-        <v>912.9324969472711</v>
+        <v>912.9324969472704</v>
       </c>
       <c r="H4" t="n">
-        <v>912.9324969472711</v>
+        <v>912.9324969472704</v>
       </c>
       <c r="I4" t="n">
         <v>1014.336461208615</v>
@@ -26814,10 +26814,10 @@
         <v>1033.810511878407</v>
       </c>
       <c r="K4" t="n">
-        <v>1033.810511878408</v>
+        <v>1033.810511878407</v>
       </c>
       <c r="L4" t="n">
-        <v>1018.507774363273</v>
+        <v>1018.507774363272</v>
       </c>
       <c r="M4" t="n">
         <v>1014.336461208614</v>
@@ -26829,7 +26829,7 @@
         <v>1014.336461208614</v>
       </c>
       <c r="P4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>23.20406659278015</v>
+        <v>23.20406659277979</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>18.37286318014579</v>
+        <v>18.37286318014617</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.60227343844676</v>
+        <v>28.60227343844639</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>18.37286318014582</v>
+        <v>18.37286318014618</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26969,7 +26969,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="E4" t="n">
-        <v>816.0987178871578</v>
+        <v>816.0987178871574</v>
       </c>
       <c r="F4" t="n">
-        <v>81.53104154497828</v>
+        <v>81.53104154497794</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>101.4039642613435</v>
+        <v>101.4039642613444</v>
       </c>
       <c r="J4" t="n">
-        <v>19.47405066979275</v>
+        <v>19.47405066979263</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>811.9274047324997</v>
+        <v>811.9274047324994</v>
       </c>
       <c r="N4" t="n">
-        <v>81.53104154497828</v>
+        <v>81.53104154497794</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>23.20406659278015</v>
+        <v>23.20406659277979</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>18.37286318014579</v>
+        <v>18.37286318014617</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="M4" t="n">
-        <v>816.0987178871578</v>
+        <v>816.0987178871574</v>
       </c>
       <c r="N4" t="n">
-        <v>81.53104154497828</v>
+        <v>81.53104154497794</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>332.8721966541476</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>203.8732841087864</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -27901,7 +27901,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>193.7173320711103</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>333.938231202278</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>354.428363163334</v>
       </c>
       <c r="Y8" t="n">
-        <v>370.9352011409185</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27929,13 +27929,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>153.0545324465364</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>132.1423280495037</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27977,28 +27977,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>84.85509663750808</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>158.2045199005069</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>210.6386445658398</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>217.4978496342902</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>190.4702476883424</v>
       </c>
       <c r="Y9" t="n">
-        <v>190.3799582621693</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>153.7681698952969</v>
       </c>
       <c r="D10" t="n">
-        <v>135.1368218148814</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>131.1312251314341</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,7 +28029,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>140.1477374121232</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -28053,13 +28053,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>70.85930573655934</v>
       </c>
       <c r="R10" t="n">
         <v>161.9906538620344</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>208.7138605218372</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="C11" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="D11" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="E11" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="F11" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="G11" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="H11" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="I11" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="T11" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="U11" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="V11" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="W11" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="X11" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="Y11" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="C13" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="D13" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="E13" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="F13" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="G13" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="H13" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="I13" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="J13" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="K13" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="L13" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="M13" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="N13" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="O13" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="P13" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="Q13" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="R13" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="S13" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="T13" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="U13" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="V13" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="W13" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="X13" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="Y13" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="C14" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="D14" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="E14" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="F14" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="G14" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="H14" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="I14" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="T14" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="U14" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="V14" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="W14" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="X14" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="Y14" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="C16" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="D16" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="E16" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="F16" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="G16" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="H16" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="I16" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="J16" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="K16" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="L16" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="M16" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="N16" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="O16" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="P16" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="R16" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="S16" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="T16" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="U16" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="V16" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="W16" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="X16" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
       <c r="Y16" t="n">
-        <v>23.77107002581239</v>
+        <v>23.77107002581274</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292592</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="J19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="K19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859284</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="M19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="N19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="O19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="P19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="R19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="S19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="C20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="D20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="E20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="F20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="G20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="H20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="T20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="U20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="V20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="W20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="X20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="C22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="D22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="E22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="F22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="G22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="H22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="I22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="L22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859347</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="O22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="P22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="R22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="S22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="T22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="U22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="V22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="W22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="X22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="C23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="D23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="E23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="F23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="G23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="H23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="T23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="U23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="V23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="W23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="X23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859341</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859348</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
     </row>
     <row r="26">
@@ -29749,7 +29749,7 @@
         <v>46.97513661859255</v>
       </c>
       <c r="C32" t="n">
-        <v>30.78710452799493</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D32" t="n">
         <v>46.97513661859255</v>
@@ -29809,7 +29809,7 @@
         <v>46.97513661859255</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859255</v>
+        <v>30.78710452799629</v>
       </c>
       <c r="X32" t="n">
         <v>46.97513661859255</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859301</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859182</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="44">
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H12" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q13" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32087,7 +32087,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
         <v>557.708647897025</v>
@@ -35176,19 +35176,19 @@
         <v>15.30273751513505</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
       <c r="N8" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>14.68444509028111</v>
-      </c>
-      <c r="O8" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,11 +35255,11 @@
         <v>15.30273751513505</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
+        <v>14.68444509028111</v>
+      </c>
+      <c r="Q9" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>14.68444509028111</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,10 +35334,10 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="M10" t="n">
         <v>14.68444509028111</v>
-      </c>
-      <c r="M10" t="n">
-        <v>15.30273751513505</v>
       </c>
       <c r="N10" t="n">
         <v>15.30273751513505</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>69.3494866388786</v>
+        <v>69.34948663887894</v>
       </c>
       <c r="K13" t="n">
-        <v>229.8187295701319</v>
+        <v>229.8187295701322</v>
       </c>
       <c r="L13" t="n">
-        <v>343.5284421960105</v>
+        <v>343.5284421960108</v>
       </c>
       <c r="M13" t="n">
-        <v>371.4044494192962</v>
+        <v>371.4044494192964</v>
       </c>
       <c r="N13" t="n">
-        <v>368.6280161933524</v>
+        <v>368.6280161933527</v>
       </c>
       <c r="O13" t="n">
-        <v>326.1242002484522</v>
+        <v>326.1242002484524</v>
       </c>
       <c r="P13" t="n">
-        <v>258.7281411709228</v>
+        <v>258.7281411709231</v>
       </c>
       <c r="Q13" t="n">
-        <v>102.165308563706</v>
+        <v>102.1653085637063</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,7 +35650,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>778.4200970754788</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
@@ -35662,10 +35662,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>509.2769782426105</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222478</v>
@@ -35735,7 +35735,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
         <v>415.1124034525806</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>69.3494866388786</v>
+        <v>69.34948663887897</v>
       </c>
       <c r="K16" t="n">
-        <v>229.8187295701319</v>
+        <v>229.8187295701323</v>
       </c>
       <c r="L16" t="n">
-        <v>343.5284421960105</v>
+        <v>343.5284421960108</v>
       </c>
       <c r="M16" t="n">
-        <v>371.4044494192962</v>
+        <v>371.4044494192966</v>
       </c>
       <c r="N16" t="n">
-        <v>368.6280161933524</v>
+        <v>368.6280161933528</v>
       </c>
       <c r="O16" t="n">
-        <v>326.1242002484522</v>
+        <v>326.1242002484525</v>
       </c>
       <c r="P16" t="n">
-        <v>258.7281411709228</v>
+        <v>258.7281411709232</v>
       </c>
       <c r="Q16" t="n">
-        <v>102.165308563706</v>
+        <v>102.1653085637064</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>830.8829835713653</v>
+        <v>830.8829835713625</v>
       </c>
       <c r="P17" t="n">
         <v>398.761986219372</v>
@@ -36045,7 +36045,7 @@
         <v>253.0227961629122</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7325087887911</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M19" t="n">
         <v>394.6085160120764</v>
@@ -36127,13 +36127,13 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>861.7510985133736</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>830.8829835713625</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36282,7 +36282,7 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887916</v>
       </c>
       <c r="M22" t="n">
         <v>394.6085160120764</v>
@@ -36294,7 +36294,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P22" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q22" t="n">
         <v>125.3693751564862</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>858.9893307218366</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>359.5297983552937</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>92.55355323165875</v>
       </c>
       <c r="K25" t="n">
-        <v>253.0227961629121</v>
+        <v>253.022796162913</v>
       </c>
       <c r="L25" t="n">
         <v>366.7325087887907</v>
@@ -36531,10 +36531,10 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P25" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3693751564871</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>607.3862815288969</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>952.8640699942159</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,22 +36829,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>221.5830694702739</v>
       </c>
       <c r="K29" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>483.38925053679</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36853,7 +36853,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>512.1289704272122</v>
+        <v>537.6239471694672</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>212.5368213938596</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554005</v>
@@ -37315,10 +37315,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>954.8518371008041</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
@@ -37473,7 +37473,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
@@ -37546,19 +37546,19 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>518.1103000989697</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>529.9955241560966</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
         <v>463.1092954636242</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37707,10 +37707,10 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120768</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>315.3055921237172</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554005</v>
@@ -37792,13 +37792,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>676.5940949430189</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L43" t="n">
         <v>366.7325087887907</v>
@@ -37950,7 +37950,7 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412316</v>
       </c>
       <c r="P43" t="n">
         <v>281.932207763703</v>
@@ -38029,16 +38029,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>717.1717573817792</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>122.1333842488617</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
